--- a/Files/country.xlsx
+++ b/Files/country.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -543,10 +544,10 @@
         <v>0.511</v>
       </c>
       <c r="L2" t="n">
-        <v>55759</v>
+        <v>56943</v>
       </c>
       <c r="M2" t="n">
-        <v>2446</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="3">
@@ -592,10 +593,10 @@
         <v>0.795</v>
       </c>
       <c r="L3" t="n">
-        <v>108823</v>
+        <v>127509</v>
       </c>
       <c r="M3" t="n">
-        <v>1835</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="4">
@@ -641,10 +642,10 @@
         <v>0.748</v>
       </c>
       <c r="L4" t="n">
-        <v>113430</v>
+        <v>118116</v>
       </c>
       <c r="M4" t="n">
-        <v>2991</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="5">
@@ -723,10 +724,10 @@
         <v>0.868</v>
       </c>
       <c r="L6" t="n">
-        <v>10908</v>
+        <v>12409</v>
       </c>
       <c r="M6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +773,10 @@
         <v>0.581</v>
       </c>
       <c r="L7" t="n">
-        <v>20882</v>
+        <v>23108</v>
       </c>
       <c r="M7" t="n">
-        <v>510</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
@@ -860,10 +861,10 @@
         <v>0.778</v>
       </c>
       <c r="L9" t="n">
-        <v>769</v>
+        <v>1180</v>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -909,10 +910,10 @@
         <v>0.845</v>
       </c>
       <c r="L10" t="n">
-        <v>2118676</v>
+        <v>2473751</v>
       </c>
       <c r="M10" t="n">
-        <v>52192</v>
+        <v>57122</v>
       </c>
     </row>
     <row r="11">
@@ -955,13 +956,13 @@
         <v>75.09</v>
       </c>
       <c r="K11" t="n">
-        <v>0.776</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>172456</v>
+        <v>200129</v>
       </c>
       <c r="M11" t="n">
-        <v>3200</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="12">
@@ -1039,10 +1040,10 @@
         <v>83.44</v>
       </c>
       <c r="K13" t="n">
-        <v>0.944</v>
+        <v>0.9440000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>28996</v>
+        <v>29390</v>
       </c>
       <c r="M13" t="n">
         <v>909</v>
@@ -1082,7 +1083,7 @@
         <v>106.749</v>
       </c>
       <c r="I14" t="n">
-        <v>45436.686</v>
+        <v>45436.68599999999</v>
       </c>
       <c r="J14" t="n">
         <v>81.54000000000001</v>
@@ -1091,10 +1092,10 @@
         <v>0.922</v>
       </c>
       <c r="L14" t="n">
-        <v>462769</v>
+        <v>568914</v>
       </c>
       <c r="M14" t="n">
-        <v>8605</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="15">
@@ -1137,13 +1138,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>0.756</v>
+        <v>0.7559999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>235014</v>
+        <v>279181</v>
       </c>
       <c r="M15" t="n">
-        <v>3225</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="16">
@@ -1186,13 +1187,13 @@
         <v>73.92</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>8519</v>
+        <v>9339</v>
       </c>
       <c r="M16" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -1238,10 +1239,10 @@
         <v>0.852</v>
       </c>
       <c r="L17" t="n">
-        <v>123531</v>
+        <v>153074</v>
       </c>
       <c r="M17" t="n">
-        <v>453</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18">
@@ -1287,10 +1288,10 @@
         <v>0.632</v>
       </c>
       <c r="L18" t="n">
-        <v>547316</v>
+        <v>666132</v>
       </c>
       <c r="M18" t="n">
-        <v>8423</v>
+        <v>9521</v>
       </c>
     </row>
     <row r="19">
@@ -1324,7 +1325,7 @@
         <v>287371</v>
       </c>
       <c r="H19" t="n">
-        <v>664.463</v>
+        <v>664.4630000000001</v>
       </c>
       <c r="I19" t="n">
         <v>16978.068</v>
@@ -1333,13 +1334,13 @@
         <v>79.19</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>3140</v>
+        <v>3704</v>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -1385,10 +1386,10 @@
         <v>0.823</v>
       </c>
       <c r="L20" t="n">
-        <v>289136</v>
+        <v>331808</v>
       </c>
       <c r="M20" t="n">
-        <v>1993</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="21">
@@ -1425,19 +1426,19 @@
         <v>375.564</v>
       </c>
       <c r="I21" t="n">
-        <v>42658.576</v>
+        <v>42658.57599999999</v>
       </c>
       <c r="J21" t="n">
         <v>81.63</v>
       </c>
       <c r="K21" t="n">
-        <v>0.931</v>
+        <v>0.9309999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>774344</v>
+        <v>913057</v>
       </c>
       <c r="M21" t="n">
-        <v>22141</v>
+        <v>23348</v>
       </c>
     </row>
     <row r="22">
@@ -1474,7 +1475,7 @@
         <v>16.426</v>
       </c>
       <c r="I22" t="n">
-        <v>7824.362</v>
+        <v>7824.361999999999</v>
       </c>
       <c r="J22" t="n">
         <v>74.62</v>
@@ -1483,10 +1484,10 @@
         <v>0.716</v>
       </c>
       <c r="L22" t="n">
-        <v>12320</v>
+        <v>12485</v>
       </c>
       <c r="M22" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23">
@@ -1532,10 +1533,10 @@
         <v>0.545</v>
       </c>
       <c r="L23" t="n">
-        <v>5434</v>
+        <v>7515</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1621,7 @@
         <v>0.654</v>
       </c>
       <c r="L25" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -1660,7 +1661,7 @@
         <v>10.202</v>
       </c>
       <c r="I26" t="n">
-        <v>6885.829</v>
+        <v>6885.829000000001</v>
       </c>
       <c r="J26" t="n">
         <v>71.51000000000001</v>
@@ -1669,10 +1670,10 @@
         <v>0.718</v>
       </c>
       <c r="L26" t="n">
-        <v>250557</v>
+        <v>279207</v>
       </c>
       <c r="M26" t="n">
-        <v>11703</v>
+        <v>12412</v>
       </c>
     </row>
     <row r="27">
@@ -1706,7 +1707,7 @@
         <v>3280815</v>
       </c>
       <c r="H27" t="n">
-        <v>68.496</v>
+        <v>68.49600000000001</v>
       </c>
       <c r="I27" t="n">
         <v>11713.895</v>
@@ -1718,10 +1719,10 @@
         <v>0.78</v>
       </c>
       <c r="L27" t="n">
-        <v>133088</v>
+        <v>180831</v>
       </c>
       <c r="M27" t="n">
-        <v>5145</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="28">
@@ -1767,10 +1768,10 @@
         <v>0.735</v>
       </c>
       <c r="L28" t="n">
-        <v>30727</v>
+        <v>41710</v>
       </c>
       <c r="M28" t="n">
-        <v>332</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1817,10 @@
         <v>0.765</v>
       </c>
       <c r="L29" t="n">
-        <v>10646926</v>
+        <v>13279857</v>
       </c>
       <c r="M29" t="n">
-        <v>257361</v>
+        <v>345025</v>
       </c>
     </row>
     <row r="30">
@@ -1891,7 +1892,7 @@
         <v>81.34699999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>71809.251</v>
+        <v>71809.25099999999</v>
       </c>
       <c r="J31" t="n">
         <v>75.86</v>
@@ -1900,7 +1901,7 @@
         <v>0.838</v>
       </c>
       <c r="L31" t="n">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -1949,10 +1950,10 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>252029</v>
+        <v>367376</v>
       </c>
       <c r="M32" t="n">
-        <v>10391</v>
+        <v>14170</v>
       </c>
     </row>
     <row r="33">
@@ -1986,7 +1987,7 @@
         <v>20903278</v>
       </c>
       <c r="H33" t="n">
-        <v>70.151</v>
+        <v>70.15100000000001</v>
       </c>
       <c r="I33" t="n">
         <v>1703.102</v>
@@ -1998,10 +1999,10 @@
         <v>0.452</v>
       </c>
       <c r="L33" t="n">
-        <v>12047</v>
+        <v>12904</v>
       </c>
       <c r="M33" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -2047,10 +2048,10 @@
         <v>0.433</v>
       </c>
       <c r="L34" t="n">
-        <v>2224</v>
+        <v>3027</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2096,10 +2097,10 @@
         <v>0.665</v>
       </c>
       <c r="L35" t="n">
-        <v>15483</v>
+        <v>18422</v>
       </c>
       <c r="M35" t="n">
-        <v>148</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
@@ -2133,7 +2134,7 @@
         <v>16718971</v>
       </c>
       <c r="H36" t="n">
-        <v>90.672</v>
+        <v>90.67200000000001</v>
       </c>
       <c r="I36" t="n">
         <v>3645.07</v>
@@ -2145,10 +2146,10 @@
         <v>0.594</v>
       </c>
       <c r="L36" t="n">
-        <v>878</v>
+        <v>3028</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2194,10 +2195,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>35714</v>
+        <v>61731</v>
       </c>
       <c r="M37" t="n">
-        <v>551</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38">
@@ -2234,7 +2235,7 @@
         <v>4.037</v>
       </c>
       <c r="I38" t="n">
-        <v>44017.591</v>
+        <v>44017.59099999999</v>
       </c>
       <c r="J38" t="n">
         <v>82.43000000000001</v>
@@ -2243,10 +2244,10 @@
         <v>0.929</v>
       </c>
       <c r="L38" t="n">
-        <v>878051</v>
+        <v>1043478</v>
       </c>
       <c r="M38" t="n">
-        <v>22043</v>
+        <v>23196</v>
       </c>
     </row>
     <row r="39">
@@ -2292,10 +2293,10 @@
         <v>0.397</v>
       </c>
       <c r="L39" t="n">
-        <v>5004</v>
+        <v>5402</v>
       </c>
       <c r="M39" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -2360,10 +2361,18 @@
           <t>N</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>65720</v>
+      </c>
+      <c r="H41" t="n">
+        <v>256.496</v>
+      </c>
+      <c r="I41" t="n">
+        <v>49903.029</v>
+      </c>
+      <c r="J41" t="n">
+        <v>83.92</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>0</v>
@@ -2415,10 +2424,10 @@
         <v>0.398</v>
       </c>
       <c r="L42" t="n">
-        <v>3999</v>
+        <v>4616</v>
       </c>
       <c r="M42" t="n">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43">
@@ -2499,10 +2508,10 @@
         <v>0.851</v>
       </c>
       <c r="L44" t="n">
-        <v>832512</v>
+        <v>1051270</v>
       </c>
       <c r="M44" t="n">
-        <v>20684</v>
+        <v>23979</v>
       </c>
     </row>
     <row r="45">
@@ -2545,13 +2554,13 @@
         <v>76.91</v>
       </c>
       <c r="K45" t="n">
-        <v>0.761</v>
+        <v>0.7609999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>100465</v>
+        <v>101436</v>
       </c>
       <c r="M45" t="n">
-        <v>4819</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="46">
@@ -2597,10 +2606,10 @@
         <v>0.767</v>
       </c>
       <c r="L46" t="n">
-        <v>2259599</v>
+        <v>2492081</v>
       </c>
       <c r="M46" t="n">
-        <v>59972</v>
+        <v>65014</v>
       </c>
     </row>
     <row r="47">
@@ -2643,13 +2652,13 @@
         <v>64.31999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>0.554</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>3578</v>
+        <v>3758</v>
       </c>
       <c r="M47" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48">
@@ -2695,10 +2704,10 @@
         <v>0.574</v>
       </c>
       <c r="L48" t="n">
-        <v>8820</v>
+        <v>10084</v>
       </c>
       <c r="M48" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49">
@@ -2779,10 +2788,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>205514</v>
+        <v>219846</v>
       </c>
       <c r="M50" t="n">
-        <v>2820</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51">
@@ -2828,10 +2837,10 @@
         <v>0.851</v>
       </c>
       <c r="L51" t="n">
-        <v>243458</v>
+        <v>285765</v>
       </c>
       <c r="M51" t="n">
-        <v>5548</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="52">
@@ -2872,13 +2881,13 @@
         <v>78.8</v>
       </c>
       <c r="K52" t="n">
-        <v>0.783</v>
+        <v>0.7829999999999999</v>
       </c>
       <c r="L52" t="n">
-        <v>51587</v>
+        <v>83515</v>
       </c>
       <c r="M52" t="n">
-        <v>328</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53">
@@ -2959,10 +2968,10 @@
         <v>0.887</v>
       </c>
       <c r="L54" t="n">
-        <v>35297</v>
+        <v>49988</v>
       </c>
       <c r="M54" t="n">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55">
@@ -3008,10 +3017,10 @@
         <v>0.9</v>
       </c>
       <c r="L55" t="n">
-        <v>1252242</v>
+        <v>1567848</v>
       </c>
       <c r="M55" t="n">
-        <v>20701</v>
+        <v>27466</v>
       </c>
     </row>
     <row r="56">
@@ -3057,10 +3066,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L56" t="n">
-        <v>212912</v>
+        <v>236340</v>
       </c>
       <c r="M56" t="n">
-        <v>2368</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="57">
@@ -3106,10 +3115,10 @@
         <v>0.524</v>
       </c>
       <c r="L57" t="n">
-        <v>6089</v>
+        <v>9479</v>
       </c>
       <c r="M57" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
@@ -3143,7 +3152,7 @@
         <v>71991</v>
       </c>
       <c r="H58" t="n">
-        <v>98.56699999999999</v>
+        <v>98.56700000000001</v>
       </c>
       <c r="I58" t="n">
         <v>9673.367</v>
@@ -3155,7 +3164,7 @@
         <v>0.742</v>
       </c>
       <c r="L58" t="n">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3201,13 +3210,13 @@
         <v>74.08</v>
       </c>
       <c r="K59" t="n">
-        <v>0.756</v>
+        <v>0.7559999999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>240201</v>
+        <v>256031</v>
       </c>
       <c r="M59" t="n">
-        <v>3118</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="60">
@@ -3253,10 +3262,10 @@
         <v>0.48</v>
       </c>
       <c r="L60" t="n">
-        <v>26050</v>
+        <v>28474</v>
       </c>
       <c r="M60" t="n">
-        <v>711</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61">
@@ -3302,10 +3311,10 @@
         <v>0.759</v>
       </c>
       <c r="L61" t="n">
-        <v>286725</v>
+        <v>341619</v>
       </c>
       <c r="M61" t="n">
-        <v>15850</v>
+        <v>17115</v>
       </c>
     </row>
     <row r="62">
@@ -3348,13 +3357,13 @@
         <v>71.98999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>0.707</v>
+        <v>0.7070000000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>183591</v>
+        <v>208082</v>
       </c>
       <c r="M62" t="n">
-        <v>10778</v>
+        <v>12323</v>
       </c>
     </row>
     <row r="63">
@@ -3391,19 +3400,19 @@
         <v>307.811</v>
       </c>
       <c r="I63" t="n">
-        <v>7292.458</v>
+        <v>7292.458000000001</v>
       </c>
       <c r="J63" t="n">
         <v>73.31999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0.673</v>
+        <v>0.6729999999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>60491</v>
+        <v>65491</v>
       </c>
       <c r="M63" t="n">
-        <v>1869</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="64">
@@ -3446,13 +3455,13 @@
         <v>58.74</v>
       </c>
       <c r="K64" t="n">
-        <v>0.592</v>
+        <v>0.5920000000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>6095</v>
+        <v>7059</v>
       </c>
       <c r="M64" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
@@ -3486,7 +3495,7 @@
         <v>3546427</v>
       </c>
       <c r="H65" t="n">
-        <v>44.304</v>
+        <v>44.30399999999999</v>
       </c>
       <c r="I65" t="n">
         <v>1510.459</v>
@@ -3498,10 +3507,10 @@
         <v>0.459</v>
       </c>
       <c r="L65" t="n">
-        <v>2884</v>
+        <v>3393</v>
       </c>
       <c r="M65" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3547,10 +3556,10 @@
         <v>0.892</v>
       </c>
       <c r="L66" t="n">
-        <v>67739</v>
+        <v>112421</v>
       </c>
       <c r="M66" t="n">
-        <v>605</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67">
@@ -3596,10 +3605,10 @@
         <v>0.611</v>
       </c>
       <c r="L67" t="n">
-        <v>17086</v>
+        <v>17367</v>
       </c>
       <c r="M67" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68">
@@ -3645,10 +3654,10 @@
         <v>0.485</v>
       </c>
       <c r="L68" t="n">
-        <v>160813</v>
+        <v>223665</v>
       </c>
       <c r="M68" t="n">
-        <v>2386</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="69">
@@ -3772,7 +3781,7 @@
         <v>0.743</v>
       </c>
       <c r="L71" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -3821,10 +3830,10 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>58645</v>
+        <v>80842</v>
       </c>
       <c r="M72" t="n">
-        <v>755</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73">
@@ -3855,7 +3864,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>65273512</v>
+        <v>68147687</v>
       </c>
       <c r="H73" t="n">
         <v>122.578</v>
@@ -3867,13 +3876,13 @@
         <v>82.66</v>
       </c>
       <c r="K73" t="n">
-        <v>0.901</v>
+        <v>0.9009999999999999</v>
       </c>
       <c r="L73" t="n">
-        <v>3843241</v>
+        <v>5000155</v>
       </c>
       <c r="M73" t="n">
-        <v>87373</v>
+        <v>98196</v>
       </c>
     </row>
     <row r="74">
@@ -3989,10 +3998,10 @@
         <v>0.703</v>
       </c>
       <c r="L76" t="n">
-        <v>14849</v>
+        <v>20265</v>
       </c>
       <c r="M76" t="n">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
@@ -4038,10 +4047,10 @@
         <v>0.496</v>
       </c>
       <c r="L77" t="n">
-        <v>4712</v>
+        <v>5564</v>
       </c>
       <c r="M77" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78">
@@ -4087,10 +4096,10 @@
         <v>0.8120000000000001</v>
       </c>
       <c r="L78" t="n">
-        <v>271379</v>
+        <v>286406</v>
       </c>
       <c r="M78" t="n">
-        <v>3532</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="79">
@@ -4133,13 +4142,13 @@
         <v>81.33</v>
       </c>
       <c r="K79" t="n">
-        <v>0.947</v>
+        <v>0.9470000000000001</v>
       </c>
       <c r="L79" t="n">
-        <v>2462061</v>
+        <v>2966789</v>
       </c>
       <c r="M79" t="n">
-        <v>70926</v>
+        <v>78049</v>
       </c>
     </row>
     <row r="80">
@@ -4185,10 +4194,10 @@
         <v>0.611</v>
       </c>
       <c r="L80" t="n">
-        <v>84023</v>
+        <v>91109</v>
       </c>
       <c r="M80" t="n">
-        <v>607</v>
+        <v>752</v>
       </c>
     </row>
     <row r="81">
@@ -4273,10 +4282,10 @@
         <v>0.888</v>
       </c>
       <c r="L82" t="n">
-        <v>194582</v>
+        <v>288230</v>
       </c>
       <c r="M82" t="n">
-        <v>6557</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="83">
@@ -4361,7 +4370,7 @@
         <v>0.779</v>
       </c>
       <c r="L84" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -4471,19 +4480,19 @@
         <v>157.834</v>
       </c>
       <c r="I87" t="n">
-        <v>7423.808</v>
+        <v>7423.808000000001</v>
       </c>
       <c r="J87" t="n">
         <v>74.3</v>
       </c>
       <c r="K87" t="n">
-        <v>0.663</v>
+        <v>0.6629999999999999</v>
       </c>
       <c r="L87" t="n">
-        <v>175411</v>
+        <v>199964</v>
       </c>
       <c r="M87" t="n">
-        <v>6412</v>
+        <v>6955</v>
       </c>
     </row>
     <row r="88">
@@ -4529,10 +4538,10 @@
         <v>0.477</v>
       </c>
       <c r="L88" t="n">
-        <v>16081</v>
+        <v>20554</v>
       </c>
       <c r="M88" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89">
@@ -4578,10 +4587,10 @@
         <v>0.48</v>
       </c>
       <c r="L89" t="n">
-        <v>3271</v>
+        <v>3664</v>
       </c>
       <c r="M89" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
@@ -4627,10 +4636,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="L90" t="n">
-        <v>8626</v>
+        <v>10853</v>
       </c>
       <c r="M90" t="n">
-        <v>197</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91">
@@ -4676,10 +4685,10 @@
         <v>0.51</v>
       </c>
       <c r="L91" t="n">
-        <v>12493</v>
+        <v>12803</v>
       </c>
       <c r="M91" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92">
@@ -4725,10 +4734,10 @@
         <v>0.634</v>
       </c>
       <c r="L92" t="n">
-        <v>171758</v>
+        <v>193783</v>
       </c>
       <c r="M92" t="n">
-        <v>4187</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="93">
@@ -4758,11 +4767,21 @@
           <t>N</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>7496988</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7039.714</v>
+      </c>
+      <c r="I93" t="n">
+        <v>56054.92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>84.86</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9490000000000001</v>
+      </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
@@ -4810,13 +4829,13 @@
         <v>76.88</v>
       </c>
       <c r="K94" t="n">
-        <v>0.854</v>
+        <v>0.8540000000000001</v>
       </c>
       <c r="L94" t="n">
-        <v>435689</v>
+        <v>698490</v>
       </c>
       <c r="M94" t="n">
-        <v>15188</v>
+        <v>22681</v>
       </c>
     </row>
     <row r="95">
@@ -4859,10 +4878,10 @@
         <v>82.98999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>0.949</v>
+        <v>0.9490000000000001</v>
       </c>
       <c r="L95" t="n">
-        <v>6055</v>
+        <v>6256</v>
       </c>
       <c r="M95" t="n">
         <v>29</v>
@@ -4911,10 +4930,10 @@
         <v>0.645</v>
       </c>
       <c r="L96" t="n">
-        <v>11139516</v>
+        <v>13060542</v>
       </c>
       <c r="M96" t="n">
-        <v>157346</v>
+        <v>167642</v>
       </c>
     </row>
     <row r="97">
@@ -4960,10 +4979,10 @@
         <v>0.718</v>
       </c>
       <c r="L97" t="n">
-        <v>1347026</v>
+        <v>1552880</v>
       </c>
       <c r="M97" t="n">
-        <v>36518</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="98">
@@ -5006,13 +5025,13 @@
         <v>76.68000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>0.783</v>
+        <v>0.7829999999999999</v>
       </c>
       <c r="L98" t="n">
-        <v>1648174</v>
+        <v>2006934</v>
       </c>
       <c r="M98" t="n">
-        <v>60267</v>
+        <v>63884</v>
       </c>
     </row>
     <row r="99">
@@ -5058,10 +5077,10 @@
         <v>0.674</v>
       </c>
       <c r="L99" t="n">
-        <v>703778</v>
+        <v>903439</v>
       </c>
       <c r="M99" t="n">
-        <v>13458</v>
+        <v>14606</v>
       </c>
     </row>
     <row r="100">
@@ -5107,10 +5126,10 @@
         <v>0.955</v>
       </c>
       <c r="L100" t="n">
-        <v>220630</v>
+        <v>239723</v>
       </c>
       <c r="M100" t="n">
-        <v>4333</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="101">
@@ -5140,16 +5159,10 @@
           <t>N</t>
         </is>
       </c>
-      <c r="G101" t="n">
-        <v>85032</v>
-      </c>
-      <c r="H101" t="n">
-        <v>147.872</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>81.40000000000001</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>0</v>
@@ -5201,10 +5214,10 @@
         <v>0.919</v>
       </c>
       <c r="L102" t="n">
-        <v>785218</v>
+        <v>835486</v>
       </c>
       <c r="M102" t="n">
-        <v>5790</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="103">
@@ -5250,10 +5263,10 @@
         <v>0.892</v>
       </c>
       <c r="L103" t="n">
-        <v>2955434</v>
+        <v>3717602</v>
       </c>
       <c r="M103" t="n">
-        <v>98288</v>
+        <v>112861</v>
       </c>
     </row>
     <row r="104">
@@ -5296,13 +5309,13 @@
         <v>57.78</v>
       </c>
       <c r="K104" t="n">
-        <v>0.538</v>
+        <v>0.5379999999999999</v>
       </c>
       <c r="L104" t="n">
-        <v>32929</v>
+        <v>44975</v>
       </c>
       <c r="M104" t="n">
-        <v>193</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105">
@@ -5345,13 +5358,13 @@
         <v>74.47</v>
       </c>
       <c r="K105" t="n">
-        <v>0.734</v>
+        <v>0.7340000000000001</v>
       </c>
       <c r="L105" t="n">
-        <v>23838</v>
+        <v>41604</v>
       </c>
       <c r="M105" t="n">
-        <v>432</v>
+        <v>646</v>
       </c>
     </row>
     <row r="106">
@@ -5397,10 +5410,10 @@
         <v>0.919</v>
       </c>
       <c r="L106" t="n">
-        <v>433698</v>
+        <v>496349</v>
       </c>
       <c r="M106" t="n">
-        <v>8005</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="107">
@@ -5443,13 +5456,13 @@
         <v>74.53</v>
       </c>
       <c r="K107" t="n">
-        <v>0.729</v>
+        <v>0.7290000000000001</v>
       </c>
       <c r="L107" t="n">
-        <v>402282</v>
+        <v>655456</v>
       </c>
       <c r="M107" t="n">
-        <v>4756</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="108">
@@ -5495,10 +5508,10 @@
         <v>0.825</v>
       </c>
       <c r="L108" t="n">
-        <v>264178</v>
+        <v>315102</v>
       </c>
       <c r="M108" t="n">
-        <v>3170</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="109">
@@ -5544,10 +5557,10 @@
         <v>0.601</v>
       </c>
       <c r="L109" t="n">
-        <v>106470</v>
+        <v>143063</v>
       </c>
       <c r="M109" t="n">
-        <v>1863</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="110">
@@ -5625,13 +5638,13 @@
         <v>75.48999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>0.806</v>
+        <v>0.8059999999999999</v>
       </c>
       <c r="L111" t="n">
-        <v>193372</v>
+        <v>242848</v>
       </c>
       <c r="M111" t="n">
-        <v>1092</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="112">
@@ -5674,13 +5687,13 @@
         <v>71.45</v>
       </c>
       <c r="K112" t="n">
-        <v>0.697</v>
+        <v>0.6970000000000001</v>
       </c>
       <c r="L112" t="n">
-        <v>86356</v>
+        <v>89660</v>
       </c>
       <c r="M112" t="n">
-        <v>1468</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="113">
@@ -5726,7 +5739,7 @@
         <v>0.613</v>
       </c>
       <c r="L113" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -5775,10 +5788,10 @@
         <v>0.866</v>
       </c>
       <c r="L114" t="n">
-        <v>87103</v>
+        <v>105916</v>
       </c>
       <c r="M114" t="n">
-        <v>1638</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="115">
@@ -5821,13 +5834,13 @@
         <v>78.93000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>0.744</v>
+        <v>0.7440000000000001</v>
       </c>
       <c r="L115" t="n">
-        <v>380036</v>
+        <v>489428</v>
       </c>
       <c r="M115" t="n">
-        <v>4805</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="116">
@@ -5873,10 +5886,10 @@
         <v>0.527</v>
       </c>
       <c r="L116" t="n">
-        <v>10497</v>
+        <v>10707</v>
       </c>
       <c r="M116" t="n">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117">
@@ -5922,7 +5935,7 @@
         <v>0.48</v>
       </c>
       <c r="L117" t="n">
-        <v>2014</v>
+        <v>2042</v>
       </c>
       <c r="M117" t="n">
         <v>85</v>
@@ -5968,13 +5981,13 @@
         <v>72.91</v>
       </c>
       <c r="K118" t="n">
-        <v>0.724</v>
+        <v>0.7240000000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>134967</v>
+        <v>166156</v>
       </c>
       <c r="M118" t="n">
-        <v>2216</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="119">
@@ -6018,10 +6031,10 @@
         <v>0.919</v>
       </c>
       <c r="L119" t="n">
-        <v>2576</v>
+        <v>2714</v>
       </c>
       <c r="M119" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120">
@@ -6067,10 +6080,10 @@
         <v>0.882</v>
       </c>
       <c r="L120" t="n">
-        <v>199825</v>
+        <v>223127</v>
       </c>
       <c r="M120" t="n">
-        <v>3263</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="121">
@@ -6113,13 +6126,13 @@
         <v>82.25</v>
       </c>
       <c r="K121" t="n">
-        <v>0.916</v>
+        <v>0.9159999999999999</v>
       </c>
       <c r="L121" t="n">
-        <v>55632</v>
+        <v>63180</v>
       </c>
       <c r="M121" t="n">
-        <v>641</v>
+        <v>762</v>
       </c>
     </row>
     <row r="122">
@@ -6204,10 +6217,10 @@
         <v>0.528</v>
       </c>
       <c r="L123" t="n">
-        <v>19831</v>
+        <v>26475</v>
       </c>
       <c r="M123" t="n">
-        <v>297</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124">
@@ -6253,10 +6266,10 @@
         <v>0.483</v>
       </c>
       <c r="L124" t="n">
-        <v>32148</v>
+        <v>33738</v>
       </c>
       <c r="M124" t="n">
-        <v>1053</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="125">
@@ -6290,7 +6303,7 @@
         <v>32365998</v>
       </c>
       <c r="H125" t="n">
-        <v>96.254</v>
+        <v>96.25399999999999</v>
       </c>
       <c r="I125" t="n">
         <v>26808.164</v>
@@ -6302,10 +6315,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L125" t="n">
-        <v>304135</v>
+        <v>355753</v>
       </c>
       <c r="M125" t="n">
-        <v>1141</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="126">
@@ -6351,10 +6364,10 @@
         <v>0.74</v>
       </c>
       <c r="L126" t="n">
-        <v>20144</v>
+        <v>25304</v>
       </c>
       <c r="M126" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127">
@@ -6400,10 +6413,10 @@
         <v>0.434</v>
       </c>
       <c r="L127" t="n">
-        <v>8420</v>
+        <v>11254</v>
       </c>
       <c r="M127" t="n">
-        <v>355</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128">
@@ -6449,10 +6462,10 @@
         <v>0.895</v>
       </c>
       <c r="L128" t="n">
-        <v>22993</v>
+        <v>29463</v>
       </c>
       <c r="M128" t="n">
-        <v>319</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129">
@@ -6495,7 +6508,7 @@
         <v>73.7</v>
       </c>
       <c r="K129" t="n">
-        <v>0.704</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L129" t="n">
         <v>4</v>
@@ -6582,10 +6595,10 @@
         <v>0.546</v>
       </c>
       <c r="L131" t="n">
-        <v>17235</v>
+        <v>17995</v>
       </c>
       <c r="M131" t="n">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="132">
@@ -6631,10 +6644,10 @@
         <v>0.804</v>
       </c>
       <c r="L132" t="n">
-        <v>619</v>
+        <v>1171</v>
       </c>
       <c r="M132" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -6715,10 +6728,10 @@
         <v>0.779</v>
       </c>
       <c r="L134" t="n">
-        <v>2097194</v>
+        <v>2267019</v>
       </c>
       <c r="M134" t="n">
-        <v>187187</v>
+        <v>206146</v>
       </c>
     </row>
     <row r="135">
@@ -6748,21 +6761,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="G135" t="n">
-        <v>115021</v>
-      </c>
-      <c r="H135" t="n">
-        <v>150.777</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3299.464</v>
-      </c>
-      <c r="J135" t="n">
-        <v>67.88</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.62</v>
-      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -6813,10 +6816,10 @@
         <v>0.75</v>
       </c>
       <c r="L136" t="n">
-        <v>187847</v>
+        <v>239146</v>
       </c>
       <c r="M136" t="n">
-        <v>4002</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="137">
@@ -6858,10 +6861,10 @@
       </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>1965</v>
+        <v>2364</v>
       </c>
       <c r="M137" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
@@ -6907,10 +6910,10 @@
         <v>0.737</v>
       </c>
       <c r="L138" t="n">
-        <v>3032</v>
+        <v>13494</v>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -6953,13 +6956,13 @@
         <v>76.88</v>
       </c>
       <c r="K139" t="n">
-        <v>0.829</v>
+        <v>0.8290000000000001</v>
       </c>
       <c r="L139" t="n">
-        <v>76868</v>
+        <v>93566</v>
       </c>
       <c r="M139" t="n">
-        <v>1023</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="140">
@@ -7035,19 +7038,19 @@
         <v>80.08</v>
       </c>
       <c r="I141" t="n">
-        <v>7485.013</v>
+        <v>7485.013000000001</v>
       </c>
       <c r="J141" t="n">
         <v>76.68000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6859999999999999</v>
       </c>
       <c r="L141" t="n">
-        <v>484159</v>
+        <v>500323</v>
       </c>
       <c r="M141" t="n">
-        <v>8645</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="142">
@@ -7093,10 +7096,10 @@
         <v>0.456</v>
       </c>
       <c r="L142" t="n">
-        <v>59914</v>
+        <v>68466</v>
       </c>
       <c r="M142" t="n">
-        <v>665</v>
+        <v>788</v>
       </c>
     </row>
     <row r="143">
@@ -7142,10 +7145,10 @@
         <v>0.583</v>
       </c>
       <c r="L143" t="n">
-        <v>141965</v>
+        <v>142549</v>
       </c>
       <c r="M143" t="n">
-        <v>3199</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="144">
@@ -7223,13 +7226,13 @@
         <v>63.71</v>
       </c>
       <c r="K145" t="n">
-        <v>0.646</v>
+        <v>0.6459999999999999</v>
       </c>
       <c r="L145" t="n">
-        <v>39182</v>
+        <v>45054</v>
       </c>
       <c r="M145" t="n">
-        <v>430</v>
+        <v>557</v>
       </c>
     </row>
     <row r="146">
@@ -7310,10 +7313,10 @@
         <v>0.602</v>
       </c>
       <c r="L147" t="n">
-        <v>274294</v>
+        <v>279100</v>
       </c>
       <c r="M147" t="n">
-        <v>2777</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="148">
@@ -7356,13 +7359,13 @@
         <v>82.28</v>
       </c>
       <c r="K148" t="n">
-        <v>0.944</v>
+        <v>0.9440000000000001</v>
       </c>
       <c r="L148" t="n">
-        <v>1111364</v>
+        <v>1350034</v>
       </c>
       <c r="M148" t="n">
-        <v>15775</v>
+        <v>16873</v>
       </c>
     </row>
     <row r="149">
@@ -7440,10 +7443,10 @@
         <v>82.29000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>0.931</v>
+        <v>0.9309999999999999</v>
       </c>
       <c r="L150" t="n">
-        <v>2384</v>
+        <v>2561</v>
       </c>
       <c r="M150" t="n">
         <v>26</v>
@@ -7492,10 +7495,10 @@
         <v>0.66</v>
       </c>
       <c r="L151" t="n">
-        <v>6489</v>
+        <v>6727</v>
       </c>
       <c r="M151" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152">
@@ -7541,10 +7544,10 @@
         <v>0.394</v>
       </c>
       <c r="L152" t="n">
-        <v>4740</v>
+        <v>5058</v>
       </c>
       <c r="M152" t="n">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="153">
@@ -7581,7 +7584,7 @@
         <v>209.588</v>
       </c>
       <c r="I153" t="n">
-        <v>5338.454</v>
+        <v>5338.454000000001</v>
       </c>
       <c r="J153" t="n">
         <v>54.69</v>
@@ -7590,10 +7593,10 @@
         <v>0.539</v>
       </c>
       <c r="L153" t="n">
-        <v>156496</v>
+        <v>163581</v>
       </c>
       <c r="M153" t="n">
-        <v>1923</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="154">
@@ -7674,10 +7677,10 @@
         <v>0.774</v>
       </c>
       <c r="L155" t="n">
-        <v>103746</v>
+        <v>138891</v>
       </c>
       <c r="M155" t="n">
-        <v>3151</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="156">
@@ -7755,13 +7758,13 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>0.957</v>
+        <v>0.9570000000000001</v>
       </c>
       <c r="L157" t="n">
-        <v>72234</v>
+        <v>101960</v>
       </c>
       <c r="M157" t="n">
-        <v>623</v>
+        <v>684</v>
       </c>
     </row>
     <row r="158">
@@ -7807,10 +7810,10 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="L158" t="n">
-        <v>142169</v>
+        <v>168005</v>
       </c>
       <c r="M158" t="n">
-        <v>1580</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="159">
@@ -7856,10 +7859,10 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="L159" t="n">
-        <v>583916</v>
+        <v>710829</v>
       </c>
       <c r="M159" t="n">
-        <v>13013</v>
+        <v>15229</v>
       </c>
     </row>
     <row r="160">
@@ -7940,10 +7943,10 @@
         <v>0.708</v>
       </c>
       <c r="L161" t="n">
-        <v>187309</v>
+        <v>262017</v>
       </c>
       <c r="M161" t="n">
-        <v>2063</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="162">
@@ -7989,10 +7992,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="L162" t="n">
-        <v>342019</v>
+        <v>357704</v>
       </c>
       <c r="M162" t="n">
-        <v>5871</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="163">
@@ -8038,10 +8041,10 @@
         <v>0.555</v>
       </c>
       <c r="L163" t="n">
-        <v>1365</v>
+        <v>7839</v>
       </c>
       <c r="M163" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164">
@@ -8087,10 +8090,10 @@
         <v>0.728</v>
       </c>
       <c r="L164" t="n">
-        <v>161530</v>
+        <v>229595</v>
       </c>
       <c r="M164" t="n">
-        <v>3218</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="165">
@@ -8136,10 +8139,10 @@
         <v>0.777</v>
       </c>
       <c r="L165" t="n">
-        <v>1338297</v>
+        <v>1617864</v>
       </c>
       <c r="M165" t="n">
-        <v>46894</v>
+        <v>53978</v>
       </c>
     </row>
     <row r="166">
@@ -8185,10 +8188,10 @@
         <v>0.718</v>
       </c>
       <c r="L166" t="n">
-        <v>580442</v>
+        <v>828366</v>
       </c>
       <c r="M166" t="n">
-        <v>12369</v>
+        <v>14119</v>
       </c>
     </row>
     <row r="167">
@@ -8234,10 +8237,10 @@
         <v>0.88</v>
       </c>
       <c r="L167" t="n">
-        <v>1719708</v>
+        <v>2499507</v>
       </c>
       <c r="M167" t="n">
-        <v>44008</v>
+        <v>56659</v>
       </c>
     </row>
     <row r="168">
@@ -8280,13 +8283,13 @@
         <v>82.05</v>
       </c>
       <c r="K168" t="n">
-        <v>0.864</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="L168" t="n">
-        <v>805647</v>
+        <v>825633</v>
       </c>
       <c r="M168" t="n">
-        <v>16389</v>
+        <v>16899</v>
       </c>
     </row>
     <row r="169">
@@ -8367,10 +8370,10 @@
         <v>0.848</v>
       </c>
       <c r="L170" t="n">
-        <v>164600</v>
+        <v>187150</v>
       </c>
       <c r="M170" t="n">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171">
@@ -8439,7 +8442,7 @@
         <v>19237682</v>
       </c>
       <c r="H172" t="n">
-        <v>85.129</v>
+        <v>85.12899999999999</v>
       </c>
       <c r="I172" t="n">
         <v>23313.199</v>
@@ -8451,10 +8454,10 @@
         <v>0.828</v>
       </c>
       <c r="L172" t="n">
-        <v>808040</v>
+        <v>993613</v>
       </c>
       <c r="M172" t="n">
-        <v>20509</v>
+        <v>24733</v>
       </c>
     </row>
     <row r="173">
@@ -8497,13 +8500,13 @@
         <v>72.58</v>
       </c>
       <c r="K173" t="n">
-        <v>0.824</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="L173" t="n">
-        <v>4220291</v>
+        <v>4563026</v>
       </c>
       <c r="M173" t="n">
-        <v>85458</v>
+        <v>100158</v>
       </c>
     </row>
     <row r="174">
@@ -8546,13 +8549,13 @@
         <v>69.02</v>
       </c>
       <c r="K174" t="n">
-        <v>0.543</v>
+        <v>0.5429999999999999</v>
       </c>
       <c r="L174" t="n">
-        <v>19111</v>
+        <v>23152</v>
       </c>
       <c r="M174" t="n">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175">
@@ -8595,13 +8598,13 @@
         <v>83.03</v>
       </c>
       <c r="K175" t="n">
-        <v>0.916</v>
+        <v>0.9159999999999999</v>
       </c>
       <c r="L175" t="n">
-        <v>90815</v>
+        <v>108268</v>
       </c>
       <c r="M175" t="n">
-        <v>1612</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="176">
@@ -8686,7 +8689,7 @@
         <v>0.779</v>
       </c>
       <c r="L177" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
@@ -8735,10 +8738,10 @@
         <v>0.759</v>
       </c>
       <c r="L178" t="n">
-        <v>3779</v>
+        <v>4312</v>
       </c>
       <c r="M178" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179">
@@ -8891,7 +8894,7 @@
         <v>33938</v>
       </c>
       <c r="H182" t="n">
-        <v>556.667</v>
+        <v>556.6669999999999</v>
       </c>
       <c r="I182" t="n">
         <v>56861.47</v>
@@ -8901,10 +8904,10 @@
       </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>3791</v>
+        <v>4932</v>
       </c>
       <c r="M182" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="183">
@@ -8950,10 +8953,10 @@
         <v>0.625</v>
       </c>
       <c r="L183" t="n">
-        <v>1840</v>
+        <v>2255</v>
       </c>
       <c r="M183" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184">
@@ -8990,19 +8993,19 @@
         <v>15.322</v>
       </c>
       <c r="I184" t="n">
-        <v>49045.411</v>
+        <v>49045.41099999999</v>
       </c>
       <c r="J184" t="n">
         <v>75.13</v>
       </c>
       <c r="K184" t="n">
-        <v>0.854</v>
+        <v>0.8540000000000001</v>
       </c>
       <c r="L184" t="n">
-        <v>378002</v>
+        <v>395854</v>
       </c>
       <c r="M184" t="n">
-        <v>6505</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="185">
@@ -9036,7 +9039,7 @@
         <v>16743930</v>
       </c>
       <c r="H185" t="n">
-        <v>82.328</v>
+        <v>82.32799999999999</v>
       </c>
       <c r="I185" t="n">
         <v>2470.58</v>
@@ -9048,10 +9051,10 @@
         <v>0.512</v>
       </c>
       <c r="L185" t="n">
-        <v>34832</v>
+        <v>39237</v>
       </c>
       <c r="M185" t="n">
-        <v>888</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="186">
@@ -9094,13 +9097,13 @@
         <v>76</v>
       </c>
       <c r="K186" t="n">
-        <v>0.806</v>
+        <v>0.8059999999999999</v>
       </c>
       <c r="L186" t="n">
-        <v>466885</v>
+        <v>633013</v>
       </c>
       <c r="M186" t="n">
-        <v>4475</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="187">
@@ -9143,13 +9146,13 @@
         <v>73.40000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>0.796</v>
+        <v>0.7959999999999999</v>
       </c>
       <c r="L187" t="n">
-        <v>2849</v>
+        <v>4395</v>
       </c>
       <c r="M187" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188">
@@ -9195,7 +9198,7 @@
         <v>0.452</v>
       </c>
       <c r="L188" t="n">
-        <v>3889</v>
+        <v>3993</v>
       </c>
       <c r="M188" t="n">
         <v>79</v>
@@ -9244,10 +9247,10 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="L189" t="n">
-        <v>59956</v>
+        <v>60575</v>
       </c>
       <c r="M189" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190">
@@ -9328,10 +9331,10 @@
         <v>0.86</v>
       </c>
       <c r="L191" t="n">
-        <v>311002</v>
+        <v>368470</v>
       </c>
       <c r="M191" t="n">
-        <v>7388</v>
+        <v>10322</v>
       </c>
     </row>
     <row r="192">
@@ -9377,10 +9380,10 @@
         <v>0.917</v>
       </c>
       <c r="L192" t="n">
-        <v>191056</v>
+        <v>223416</v>
       </c>
       <c r="M192" t="n">
-        <v>3863</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="193">
@@ -9423,10 +9426,10 @@
         <v>73</v>
       </c>
       <c r="K193" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5670000000000001</v>
       </c>
       <c r="L193" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
@@ -9471,10 +9474,10 @@
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
-        <v>7518</v>
+        <v>12271</v>
       </c>
       <c r="M194" t="n">
-        <v>249</v>
+        <v>605</v>
       </c>
     </row>
     <row r="195">
@@ -9517,13 +9520,13 @@
         <v>64.13</v>
       </c>
       <c r="K195" t="n">
-        <v>0.709</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="L195" t="n">
-        <v>1514815</v>
+        <v>1554975</v>
       </c>
       <c r="M195" t="n">
-        <v>50271</v>
+        <v>53173</v>
       </c>
     </row>
     <row r="196">
@@ -9567,10 +9570,10 @@
         <v>0.433</v>
       </c>
       <c r="L196" t="n">
-        <v>8144</v>
+        <v>10324</v>
       </c>
       <c r="M196" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197">
@@ -9616,10 +9619,10 @@
         <v>0.904</v>
       </c>
       <c r="L197" t="n">
-        <v>3130184</v>
+        <v>3336637</v>
       </c>
       <c r="M197" t="n">
-        <v>69801</v>
+        <v>76179</v>
       </c>
     </row>
     <row r="198">
@@ -9665,10 +9668,10 @@
         <v>0.782</v>
       </c>
       <c r="L198" t="n">
-        <v>83870</v>
+        <v>94253</v>
       </c>
       <c r="M198" t="n">
-        <v>483</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199">
@@ -9749,10 +9752,10 @@
         <v>0.738</v>
       </c>
       <c r="L200" t="n">
-        <v>1628</v>
+        <v>1774</v>
       </c>
       <c r="M200" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -9789,7 +9792,7 @@
         <v>23.258</v>
       </c>
       <c r="I201" t="n">
-        <v>4466.507</v>
+        <v>4466.507000000001</v>
       </c>
       <c r="J201" t="n">
         <v>65.31</v>
@@ -9798,10 +9801,10 @@
         <v>0.51</v>
       </c>
       <c r="L201" t="n">
-        <v>30417</v>
+        <v>31833</v>
       </c>
       <c r="M201" t="n">
-        <v>1895</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="202">
@@ -9847,10 +9850,10 @@
         <v>0.738</v>
       </c>
       <c r="L202" t="n">
-        <v>8939</v>
+        <v>9254</v>
       </c>
       <c r="M202" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="203">
@@ -9896,10 +9899,10 @@
         <v>0.945</v>
       </c>
       <c r="L203" t="n">
-        <v>669113</v>
+        <v>849629</v>
       </c>
       <c r="M203" t="n">
-        <v>12882</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="204">
@@ -9945,10 +9948,10 @@
         <v>0.955</v>
       </c>
       <c r="L204" t="n">
-        <v>558622</v>
+        <v>615024</v>
       </c>
       <c r="M204" t="n">
-        <v>10005</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="205">
@@ -9987,13 +9990,13 @@
         <v>72.7</v>
       </c>
       <c r="K205" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5670000000000001</v>
       </c>
       <c r="L205" t="n">
-        <v>15696</v>
+        <v>19883</v>
       </c>
       <c r="M205" t="n">
-        <v>1039</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="206">
@@ -10033,10 +10036,10 @@
       </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>954</v>
+        <v>1049</v>
       </c>
       <c r="M206" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -10079,7 +10082,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>0.668</v>
+        <v>0.6679999999999999</v>
       </c>
       <c r="L207" t="n">
         <v>13308</v>
@@ -10180,10 +10183,10 @@
         <v>0.777</v>
       </c>
       <c r="L209" t="n">
-        <v>26069</v>
+        <v>30306</v>
       </c>
       <c r="M209" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="210">
@@ -10229,10 +10232,10 @@
         <v>0.606</v>
       </c>
       <c r="L210" t="n">
-        <v>113</v>
+        <v>787</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -10278,10 +10281,10 @@
         <v>0.515</v>
       </c>
       <c r="L211" t="n">
-        <v>7086</v>
+        <v>11649</v>
       </c>
       <c r="M211" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="212">
@@ -10394,13 +10397,13 @@
         <v>73.51000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>0.796</v>
+        <v>0.7959999999999999</v>
       </c>
       <c r="L214" t="n">
-        <v>7717</v>
+        <v>8276</v>
       </c>
       <c r="M214" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="215">
@@ -10434,7 +10437,7 @@
         <v>11818618</v>
       </c>
       <c r="H215" t="n">
-        <v>74.22799999999999</v>
+        <v>74.22800000000001</v>
       </c>
       <c r="I215" t="n">
         <v>10849.297</v>
@@ -10446,10 +10449,10 @@
         <v>0.74</v>
       </c>
       <c r="L215" t="n">
-        <v>234231</v>
+        <v>266827</v>
       </c>
       <c r="M215" t="n">
-        <v>8047</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="216">
@@ -10495,10 +10498,10 @@
         <v>0.82</v>
       </c>
       <c r="L216" t="n">
-        <v>1900091</v>
+        <v>2866641</v>
       </c>
       <c r="M216" t="n">
-        <v>28706</v>
+        <v>33201</v>
       </c>
     </row>
     <row r="217">
@@ -10653,10 +10656,10 @@
         <v>0.89</v>
       </c>
       <c r="L220" t="n">
-        <v>396771</v>
+        <v>478131</v>
       </c>
       <c r="M220" t="n">
-        <v>1253</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="221">
@@ -10702,10 +10705,10 @@
         <v>0.544</v>
       </c>
       <c r="L221" t="n">
-        <v>40395</v>
+        <v>41062</v>
       </c>
       <c r="M221" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222">
@@ -10751,10 +10754,10 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="L222" t="n">
-        <v>4200700</v>
+        <v>4384954</v>
       </c>
       <c r="M222" t="n">
-        <v>123530</v>
+        <v>127224</v>
       </c>
     </row>
     <row r="223">
@@ -10800,10 +10803,10 @@
         <v>0.779</v>
       </c>
       <c r="L223" t="n">
-        <v>1405394</v>
+        <v>1855806</v>
       </c>
       <c r="M223" t="n">
-        <v>27650</v>
+        <v>37649</v>
       </c>
     </row>
     <row r="224">
@@ -10881,13 +10884,13 @@
         <v>77.91</v>
       </c>
       <c r="K225" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8170000000000001</v>
       </c>
       <c r="L225" t="n">
-        <v>59171</v>
+        <v>130657</v>
       </c>
       <c r="M225" t="n">
-        <v>617</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="226">
@@ -10930,13 +10933,13 @@
         <v>78.86</v>
       </c>
       <c r="K226" t="n">
-        <v>0.926</v>
+        <v>0.9259999999999999</v>
       </c>
       <c r="L226" t="n">
-        <v>28719551</v>
+        <v>31002263</v>
       </c>
       <c r="M226" t="n">
-        <v>516581</v>
+        <v>560116</v>
       </c>
     </row>
     <row r="227">
@@ -10982,10 +10985,10 @@
         <v>0.72</v>
       </c>
       <c r="L227" t="n">
-        <v>79961</v>
+        <v>84322</v>
       </c>
       <c r="M227" t="n">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="228">
@@ -11031,7 +11034,7 @@
         <v>0.609</v>
       </c>
       <c r="L228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M228" t="n">
         <v>0</v>
@@ -11123,10 +11126,10 @@
         <v>0.711</v>
       </c>
       <c r="L230" t="n">
-        <v>139934</v>
+        <v>171373</v>
       </c>
       <c r="M230" t="n">
-        <v>1353</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="231">
@@ -11169,10 +11172,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>0.704</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L231" t="n">
-        <v>2475</v>
+        <v>2668</v>
       </c>
       <c r="M231" t="n">
         <v>35</v>
@@ -11291,10 +11294,10 @@
         <v>0.47</v>
       </c>
       <c r="L234" t="n">
-        <v>2342</v>
+        <v>5133</v>
       </c>
       <c r="M234" t="n">
-        <v>640</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="235">
@@ -11340,10 +11343,10 @@
         <v>0.584</v>
       </c>
       <c r="L235" t="n">
-        <v>79557</v>
+        <v>89592</v>
       </c>
       <c r="M235" t="n">
-        <v>1104</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="236">
@@ -11386,13 +11389,13 @@
         <v>61.49</v>
       </c>
       <c r="K236" t="n">
-        <v>0.571</v>
+        <v>0.5710000000000001</v>
       </c>
       <c r="L236" t="n">
-        <v>36148</v>
+        <v>37052</v>
       </c>
       <c r="M236" t="n">
-        <v>1472</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="237">
@@ -11434,10 +11437,10 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>70285</v>
+        <v>95886</v>
       </c>
       <c r="M237" t="n">
-        <v>1616</v>
+        <v>1968</v>
       </c>
     </row>
   </sheetData>
